--- a/pred_ohlcv/54_21/2020-01-26 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 TRX ohlcv.xlsx
@@ -1666,7 +1666,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-427234.5521772904</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-441089.2521772904</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1156834.92827729</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3767802.269961521</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2903673.50231117</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3092263.12121117</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3623894.53521117</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-4013757.48691117</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-4013757.48691117</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-4013757.48691117</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-4013757.48691117</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3982200.92951117</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3981500.92951117</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-4050215.60861117</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-4165537.71801117</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-4041227.13631117</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-4041094.36211117</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-4061826.97541117</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-4140352.93761117</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-4121990.80041117</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-4121711.14591117</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-3982623.14441117</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-3987730.14441117</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4029323.7078856</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4041323.7078856</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-3960272.7078856</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-3991970.207085601</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-3991970.207085601</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4021870.207085601</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4020989.183780521</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4020989.183780521</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-2765446.302237201</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2781224.503137201</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3185167.036470629</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3167335.349170629</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-2832145.157723499</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3283583.082132879</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3274615.021732879</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-4357242.273732879</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-4399026.15517969</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-4392430.675817699</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-4392377.641917699</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4869088.146317699</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4837139.264528569</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-4908638.709141019</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-4903321.56224102</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-4903321.56226781</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-4858768.0843946</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-4806468.0843946</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 TRX ohlcv.xlsx
@@ -1458,7 +1458,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-508019.2148772904</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-424557.4407772904</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-424557.4407772904</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-437168.8890772904</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-437168.8890772904</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-427234.5521772904</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-441089.2521772904</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3767802.269961521</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3787028.125661521</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3787028.125661521</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2903673.50231117</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4121711.14591117</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-3982831.14441117</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-3982831.14441117</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-3987730.14441117</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-3991970.207085601</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-3991970.207085601</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4021870.207085601</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4020989.183780521</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4020989.183780521</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-3159811.090380521</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-2765446.302237201</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2781224.503137201</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3278583.082132879</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3283583.082132879</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3274615.021732879</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-4357242.273732879</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-4399026.15517969</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4837139.264528569</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-4908638.709141019</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-4903321.56224102</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-4903321.56226781</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-4858768.0843946</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-4806468.0843946</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-5603913.213494601</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
